--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB1FF5-4676-4316-A97F-CA8669EB179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E900E-3FC8-4082-B86A-620176F50ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -602,7 +602,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E900E-3FC8-4082-B86A-620176F50ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F438FCC-005D-4A4B-9CD7-C65410B16F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>정반명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>occupied</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -599,23 +595,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -623,13 +619,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -640,13 +633,10 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -657,13 +647,10 @@
       <c r="D3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -673,9 +660,6 @@
       </c>
       <c r="D4" s="1">
         <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F438FCC-005D-4A4B-9CD7-C65410B16F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE542BE9-C29F-4B06-98E1-A710797D7BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>45337</v>
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>45337</v>
+        <v>45335</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>45337</v>
+        <v>45334</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE542BE9-C29F-4B06-98E1-A710797D7BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFCE10-394B-4DAC-B5A4-0B3135DBCC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="1470" yWindow="1020" windowWidth="13050" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -642,7 +642,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -656,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFCE10-394B-4DAC-B5A4-0B3135DBCC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4D545-5758-4553-BE5E-F15CFCA2A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1020" windowWidth="13050" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="15450" yWindow="1665" windowWidth="13050" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <v>45336</v>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
@@ -642,7 +642,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -656,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4D545-5758-4553-BE5E-F15CFCA2A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B53DE-C0F3-445D-8CD7-46A5FB2C4C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="1665" windowWidth="13050" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335B53DE-C0F3-445D-8CD7-46A5FB2C4C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E833C-06F2-483B-A898-5A0C5874B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="13155" yWindow="4935" windowWidth="14415" windowHeight="9075" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가능중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,6 +587,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45342</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -611,7 +634,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -646,20 +669,6 @@
       </c>
       <c r="D3" s="1">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E833C-06F2-483B-A898-5A0C5874B8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9805E8B-A2EC-4B3D-88EF-93F8F30BFFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13155" yWindow="4935" windowWidth="14415" windowHeight="9075" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="34470" yWindow="780" windowWidth="16710" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정반배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,20 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,13 +486,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -514,13 +506,10 @@
       <c r="F2" s="2">
         <v>45337</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -537,13 +526,10 @@
       <c r="F3" s="2">
         <v>45336</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -560,13 +546,10 @@
       <c r="F4" s="2">
         <v>45335</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -583,13 +566,10 @@
       <c r="F5" s="2">
         <v>45334</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -605,9 +585,6 @@
       </c>
       <c r="F6" s="2">
         <v>45342</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -620,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -631,10 +608,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -645,7 +622,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -659,7 +636,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -668,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
